--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russellmarvin/Desktop/GitHubWork/GitHub/ThesisProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9193FB4B-FF49-B640-AE3C-98B66A9AC0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798AC8C-22CA-E240-8192-DDEBB8998C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="460" windowWidth="14720" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
+    <workbookView xWindow="12780" yWindow="460" windowWidth="15180" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="54">
   <si>
     <t>AlexFast</t>
   </si>
@@ -182,6 +182,21 @@
   <si>
     <t>difference btwn slow n normal as a percentage of normal</t>
   </si>
+  <si>
+    <t>7.06% shorter</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>7.45% longer</t>
+  </si>
+  <si>
+    <t>37.184% more similar than normal vowels</t>
+  </si>
+  <si>
+    <t>69.960% more different than normal vowels</t>
+  </si>
 </sst>
 </file>
 
@@ -230,7 +245,1016 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Menlo"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -473,6 +1497,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speech</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -538,6 +1621,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Vowel length (ms0</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -656,7 +1799,489 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Difference between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> avg. vowel length preceding voiced vs voiceless consonants (voiced-voiceless)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1292325404494168E-2"/>
+          <c:y val="0.24615740740740741"/>
+          <c:w val="0.90870767459550583"/>
+          <c:h val="0.54368037328667251"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference (Vd-Vl)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$45:$D$47</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fast</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Slow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$45:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26.028034188034169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.435213675213703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.423333333333346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A2A-3C46-A167-EC154DAEBE59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1692434431"/>
+        <c:axId val="1576919439"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1692434431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speech Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1576919439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1576919439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Difference in avg.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> vowel length (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1692434431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1199,20 +2824,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>44585</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>148347</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>165426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>563393</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>54313</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>360193</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>70225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1237,6 +3365,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>29194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>978047</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>80267</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22374DA-0CB7-DF4A-B13C-CE98C49B27E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1253,13 +3417,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A9FAF53B-E018-4D43-A0FE-5F9914724DDE}" name="Table2" displayName="Table2" ref="H37:I40" totalsRowShown="0">
-  <autoFilter ref="H37:I40" xr:uid="{C9171CE4-204D-9641-989E-39550CC23FCF}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A9FAF53B-E018-4D43-A0FE-5F9914724DDE}" name="Table2" displayName="Table2" ref="H37:J40" totalsRowShown="0">
+  <autoFilter ref="H37:J40" xr:uid="{C9171CE4-204D-9641-989E-39550CC23FCF}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4B4B420B-DC1D-2E4D-8A44-5FC8966D6EC0}" name="Speed"/>
     <tableColumn id="2" xr3:uid="{DE2B1C57-C004-454F-8703-62E1BFE540FF}" name="Proportion">
       <calculatedColumnFormula>B37/B40</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="3" xr3:uid="{8783D501-4C42-CB45-8829-DB3744C07D74}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1286,6 +3451,78 @@
     <tableColumn id="2" xr3:uid="{2E95FBA2-E14E-DC40-BC1C-749462AEC5BE}" name="avg. dur ">
       <calculatedColumnFormula>SUM(E38,F38)/2</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CE3B691D-4FF9-BE41-A69C-F150487C0067}" name="Table5" displayName="Table5" ref="A1:AA16" totalsRowShown="0" dataDxfId="28">
+  <autoFilter ref="A1:AA16" xr:uid="{6213966E-51AB-034B-BC58-37BE52ABE935}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{D4096C0C-0DE8-BB45-ABDC-576A55772448}" name="AlexFast" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{40CD4139-A5EE-C544-9844-7DBD7F624BC2}" name="AlexNormal" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{F211B746-6C47-E945-A6CA-0096B2B5D910}" name="AlexSlow" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{B6ED3E3A-6A48-A244-93B6-0647DDF33099}" name="EllenFast" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{D54BC5B7-795E-5543-B152-7361C28F42A4}" name="EllenNormal" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{43EA0BA5-49FA-2B4E-BF85-1BD84587340F}" name="EllenSlow" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{B8632679-3576-1349-AEF6-7CE813CD4040}" name="EliseFast" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{60E56B7F-6371-0040-8699-DE74603270DB}" name="EliseNormal" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{51935B55-BFFE-594C-A35F-4ECB4131BA20}" name="EliseSlow" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{8434E074-1698-7D48-B128-D0D159937DE1}" name="MichaelFast" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{8988B654-8619-7647-8488-C7953F77392E}" name="MichaelNormal" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{4D626A45-C4A4-8944-9CEE-BA2EC72833B1}" name="MichaelSlow" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{09BB2B32-A5F2-3240-BB48-81833F3DBD88}" name="JasonFast" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{4293AC91-0BB7-D143-B077-AA5A8341FF0B}" name="JasonNormal" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{95D44105-48D3-D544-81EC-4379C5186E9B}" name="JasonSlow" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{39AA4057-7DAA-4D45-8743-4F69C9134EA3}" name="PatFast" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{BCEA6D88-F02E-C34B-8C6F-E842CB880FA2}" name="PatNormal" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{B360F481-7D76-C440-8663-B28143E5D6F0}" name="PatSlow" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{F89A7588-4934-B446-A257-1EDA72559C58}" name="ConorFast" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{AB19DA40-6724-2A41-BAEC-3C7279240F87}" name="ConorNormal" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{0E58C696-0024-C645-BDDF-D6845921E56B}" name="ConorSlow" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{50C0A777-E6FC-E349-8C5B-A2EFC44EF8F1}" name="MarianneFast" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{320782E1-BEA2-F74B-95CA-595BD5A6A8F6}" name="MarianneNormal" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{2E6941B3-C819-F845-9C02-D40FA60B8C49}" name="MarianneSlow" dataDxfId="32"/>
+    <tableColumn id="25" xr3:uid="{DC846262-A2F3-7342-89E1-AF8B3E6FAD17}" name="GenaFast" dataDxfId="31"/>
+    <tableColumn id="26" xr3:uid="{25C26D87-2D16-FE40-BD74-0C03CE8276D5}" name="GenaNormal" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{2E27356C-9EE7-F941-B5E3-0898CBC211C2}" name="GenaSlow" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8BD51ADB-DCA8-3241-A51E-830F9556A3E1}" name="Table6" displayName="Table6" ref="A19:AA34" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A19:AA34" xr:uid="{5341F4E6-B4BC-9745-9D3A-AC7A4756AFA1}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{CD9812C7-D5A9-2C46-BC4B-A2E7599D365A}" name="AlexFast" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{2049C2A9-CD19-E648-B832-39EC8113DE57}" name="AlexNormal" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{E361D7ED-AB80-CE41-A889-9CD05E6F7693}" name="AlexSlow" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{2F0C90FC-A0E7-B044-B04C-BE3025D5C214}" name="EllenFast" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{6D743E02-5EE4-8649-AA52-B73BBC96C110}" name="EllenNormal" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{8E9E4B71-6E85-BB47-B25B-73C9BA791388}" name="EllenSlow" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{3692186B-F2C0-834F-A53E-67913FA11C7C}" name="EliseFast" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{3E92ED0A-7CB3-8145-982E-D346F8B907E8}" name="EliseNormal" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{D68CA5BB-EA94-FA4F-8742-AECF16DAA4EB}" name="EliseSlow" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{EB4AB76A-4D45-5E4F-B689-CD9168B6A697}" name="MichaelFast" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{5C1ED3BE-D0C9-164E-BBD7-2E7D1CD25FD4}" name="MichaelNormal" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{0EA4E03F-87D2-E947-ADC2-6262A0BABE6F}" name="MichaelSlow" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{88C310D2-39EE-6245-B409-4156C83147D8}" name="JasonFast" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{BFBCC7E4-9E96-D847-A4DB-BA7362B483D2}" name="JasonNormal" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{1F3EFEA3-F444-2F43-9189-3A413D9FFA95}" name="JasonSlow" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{F5B8A587-F21D-0C40-B0D2-07830BE3C545}" name="PatFast" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{FD65193A-6F85-314B-B9F5-C84DD10FEEB6}" name="PatNormal" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{5EC48EE5-3549-E943-A91F-96123475AE74}" name="PatSlow" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{6829E80D-8C7C-7843-B546-99281CC2D306}" name="ConorFast" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{0D3B8CCB-3735-6545-8FAE-359AE840CC67}" name="ConorNormal" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{ED398332-6340-7A49-B7AC-EE839CC0BABC}" name="ConorSlow" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{08BB4D85-5A43-6744-BB4B-6B712B612F18}" name="MarianneFast" dataDxfId="6"/>
+    <tableColumn id="23" xr3:uid="{2E9A5DC2-C2B2-7C4E-AC22-6776BCFC6BEC}" name="MarianneNormal" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{D85E6D01-ADFA-5742-A4FB-B666A4924C45}" name="MarianneSlow" dataDxfId="4"/>
+    <tableColumn id="25" xr3:uid="{0A7D30C1-AC0C-5D41-958E-7A2AAA2AD433}" name="GenaFast" dataDxfId="3"/>
+    <tableColumn id="26" xr3:uid="{935A9F3B-C40C-D544-B5C3-2D17AC72F823}" name="GenaNormal" dataDxfId="2"/>
+    <tableColumn id="27" xr3:uid="{A6E48C5E-5813-3F47-A884-AEEF8D44BA55}" name="GenaSlow" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1588,17 +3825,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7585866-00BD-564D-8DE4-45DBD2AA8106}">
-  <dimension ref="A1:AA49"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="20.5" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" customWidth="1"/>
+    <col min="26" max="26" width="16.6640625" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -2782,8 +5043,69 @@
       <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -4083,7 +6405,69 @@
       <c r="F33" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -4215,6 +6599,9 @@
       <c r="I37" t="s">
         <v>42</v>
       </c>
+      <c r="J37" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -4240,8 +6627,8 @@
         <f>B37/B40</f>
         <v>1.2720646963072286</v>
       </c>
-      <c r="K38">
-        <v>1.0760000000000001</v>
+      <c r="K38" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -4293,8 +6680,8 @@
         <f>B39/B42</f>
         <v>1.4706718710102715</v>
       </c>
-      <c r="K40">
-        <v>0.93100000000000005</v>
+      <c r="K40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -4408,19 +6795,26 @@
       <c r="D49" t="s">
         <v>36</v>
       </c>
-      <c r="E49">
-        <v>0.37180000000000002</v>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russellmarvin/Desktop/ThesisPsychoPyWork/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russellmarvin/Desktop/GitHubWork/GitHub/ThesisProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7635343-169F-C145-B892-0ECC9B9D477C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3C4A50-2DBD-DD44-B40A-880A6C284906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18660" yWindow="460" windowWidth="10000" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
+    <workbookView xWindow="12240" yWindow="800" windowWidth="14720" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,106 +34,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>mug</t>
-  </si>
-  <si>
-    <t>muck</t>
-  </si>
-  <si>
-    <t>burden</t>
-  </si>
-  <si>
-    <t>burton</t>
-  </si>
-  <si>
-    <t>cud</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>bicker</t>
-  </si>
-  <si>
-    <t>bug</t>
-  </si>
-  <si>
-    <t>buck</t>
-  </si>
-  <si>
-    <t>nibble</t>
-  </si>
-  <si>
-    <t>nipple</t>
-  </si>
-  <si>
-    <t>leave</t>
-  </si>
-  <si>
-    <t>leaf</t>
-  </si>
-  <si>
-    <t>badge</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>fuzzy</t>
-  </si>
-  <si>
-    <t>fussy</t>
-  </si>
-  <si>
-    <t>aid</t>
-  </si>
-  <si>
-    <t>eight</t>
-  </si>
-  <si>
-    <t>serve</t>
-  </si>
-  <si>
-    <t>surf</t>
-  </si>
-  <si>
-    <t>rise</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>Vd/Vl</t>
-  </si>
-  <si>
-    <t>piggy</t>
-  </si>
-  <si>
-    <t>picky</t>
-  </si>
-  <si>
-    <t>frequency</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+  <si>
+    <t>AlexFast</t>
+  </si>
+  <si>
+    <t>AlexNormal</t>
+  </si>
+  <si>
+    <t>AlexSlow</t>
+  </si>
+  <si>
+    <t>Vl vvv</t>
+  </si>
+  <si>
+    <t>Vd ^^^</t>
+  </si>
+  <si>
+    <t>ConorFast</t>
+  </si>
+  <si>
+    <t>ConorNormal</t>
+  </si>
+  <si>
+    <t>ConorSlow</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>EllenFast</t>
+  </si>
+  <si>
+    <t>EllenNormal</t>
+  </si>
+  <si>
+    <t>EllenSlow</t>
+  </si>
+  <si>
+    <t>EliseFast</t>
+  </si>
+  <si>
+    <t>EliseNormal</t>
+  </si>
+  <si>
+    <t>EliseSlow</t>
+  </si>
+  <si>
+    <t>MichaelFast</t>
+  </si>
+  <si>
+    <t>MichaelNormal</t>
+  </si>
+  <si>
+    <t>MichaelSlow</t>
+  </si>
+  <si>
+    <t>JasonFast</t>
+  </si>
+  <si>
+    <t>JasonNormal</t>
+  </si>
+  <si>
+    <t>JasonSlow</t>
+  </si>
+  <si>
+    <t>MarianneFast</t>
+  </si>
+  <si>
+    <t>MarianneNormal</t>
+  </si>
+  <si>
+    <t>MarianneSlow</t>
+  </si>
+  <si>
+    <t>GenaFast</t>
+  </si>
+  <si>
+    <t>GenaNormal</t>
+  </si>
+  <si>
+    <t>GenaSlow</t>
+  </si>
+  <si>
+    <t>PatFast</t>
+  </si>
+  <si>
+    <t>PatNormal</t>
+  </si>
+  <si>
+    <t>PatSlow</t>
+  </si>
+  <si>
+    <t>Vd Fast</t>
+  </si>
+  <si>
+    <t>Vd Normal</t>
+  </si>
+  <si>
+    <t>Vd Slow</t>
+  </si>
+  <si>
+    <t>Vl Fast</t>
+  </si>
+  <si>
+    <t>Vl Normal</t>
+  </si>
+  <si>
+    <t>Vl Slow</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Voiced</t>
+  </si>
+  <si>
+    <t>Voiceless</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t>Difference (Vd-Vl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg. dur </t>
+  </si>
+  <si>
+    <t>normal/slow</t>
+  </si>
+  <si>
+    <t>proportional dif in len (</t>
+  </si>
+  <si>
+    <t>normal/fast (avg dur)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,8 +219,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,6 +238,57 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FD38964-4CA7-A241-BE1A-00B5095B4B37}" name="Table1" displayName="Table1" ref="D37:F40" totalsRowShown="0">
+  <autoFilter ref="D37:F40" xr:uid="{6D212BD6-1392-2B46-878E-4C860E08D937}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2E46ADBC-27C0-A440-B616-EA9F3B82778C}" name="Speed"/>
+    <tableColumn id="2" xr3:uid="{1EDA4110-0F34-8E4D-9765-D4164C215402}" name="Voiced"/>
+    <tableColumn id="3" xr3:uid="{FB698F48-E12A-C048-B285-93679E9F6930}" name="Voiceless"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A9FAF53B-E018-4D43-A0FE-5F9914724DDE}" name="Table2" displayName="Table2" ref="H37:I40" totalsRowShown="0">
+  <autoFilter ref="H37:I40" xr:uid="{C9171CE4-204D-9641-989E-39550CC23FCF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4B4B420B-DC1D-2E4D-8A44-5FC8966D6EC0}" name="Speed"/>
+    <tableColumn id="2" xr3:uid="{DE2B1C57-C004-454F-8703-62E1BFE540FF}" name="Proportion">
+      <calculatedColumnFormula>B37/B40</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EC7FF0B-FB99-E747-8E3F-311919F976C7}" name="Table3" displayName="Table3" ref="D44:E47" totalsRowShown="0">
+  <autoFilter ref="D44:E47" xr:uid="{09049E5C-4572-424E-B4FE-50A41E5DA064}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1B85529D-CD51-FD45-9BCC-855D96D546D8}" name="Speed"/>
+    <tableColumn id="2" xr3:uid="{9A588980-EEE8-294D-B824-C2719CEB806C}" name="Difference (Vd-Vl)">
+      <calculatedColumnFormula>B37-B40</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C9928420-4C4D-DD42-97AC-FAB754FC125B}" name="Table4" displayName="Table4" ref="G44:H47" totalsRowShown="0">
+  <autoFilter ref="G44:H47" xr:uid="{4702EFDE-B287-2745-85A7-E464AB4DF4EB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B0034EEE-3333-6246-9770-35D91BEE28A7}" name="Speed"/>
+    <tableColumn id="2" xr3:uid="{2E95FBA2-E14E-DC40-BC1C-749462AEC5BE}" name="avg. dur ">
+      <calculatedColumnFormula>SUM(E38,F38)/2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,160 +588,2820 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7585866-00BD-564D-8DE4-45DBD2AA8106}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>123.44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>168.14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>195.15</v>
+      </c>
+      <c r="D2" s="1">
+        <v>128.72999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>156.41999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>191.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>114.68</v>
+      </c>
+      <c r="H2" s="1">
+        <v>133.06</v>
+      </c>
+      <c r="I2" s="1">
+        <v>235.16</v>
+      </c>
+      <c r="J2" s="1">
+        <v>89.73</v>
+      </c>
+      <c r="K2" s="1">
+        <v>110.41</v>
+      </c>
+      <c r="L2" s="1">
+        <v>115.17</v>
+      </c>
+      <c r="M2" s="1">
+        <v>99.2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>107.73</v>
+      </c>
+      <c r="O2" s="1">
+        <v>170.5</v>
+      </c>
+      <c r="P2" s="1">
+        <v>131.6</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>79.13</v>
+      </c>
+      <c r="R2" s="1">
+        <v>246.6</v>
+      </c>
+      <c r="S2" s="1">
+        <v>83.42</v>
+      </c>
+      <c r="T2" s="1">
+        <v>43.31</v>
+      </c>
+      <c r="U2" s="1">
+        <v>149</v>
+      </c>
+      <c r="V2" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="W2" s="1">
+        <v>111.59</v>
+      </c>
+      <c r="X2" s="1">
+        <v>149.68</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>144.07</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>140.62</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>299.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>126.07</v>
+      </c>
+      <c r="B3" s="1">
+        <v>236.97</v>
+      </c>
+      <c r="C3" s="1">
+        <v>291.43</v>
+      </c>
+      <c r="D3" s="1">
+        <v>131.41</v>
+      </c>
+      <c r="E3" s="1">
+        <v>149.72999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>217.49</v>
+      </c>
+      <c r="G3" s="1">
+        <v>147.74</v>
+      </c>
+      <c r="H3" s="1">
+        <v>126.68</v>
+      </c>
+      <c r="I3" s="1">
+        <v>181.25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>118.45</v>
+      </c>
+      <c r="K3" s="1">
+        <v>168.46</v>
+      </c>
+      <c r="L3" s="1">
+        <v>164.29</v>
+      </c>
+      <c r="M3" s="1">
+        <v>52.92</v>
+      </c>
+      <c r="N3" s="1">
+        <v>110.08</v>
+      </c>
+      <c r="O3" s="1">
+        <v>140.66999999999999</v>
+      </c>
+      <c r="P3" s="1">
+        <v>108.73</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>88.26</v>
+      </c>
+      <c r="R3" s="1">
+        <v>186.71</v>
+      </c>
+      <c r="S3" s="1">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="T3" s="1">
+        <v>77.36</v>
+      </c>
+      <c r="U3" s="1">
+        <v>108.54</v>
+      </c>
+      <c r="V3" s="1">
+        <v>96.95</v>
+      </c>
+      <c r="W3" s="1">
+        <v>134.06</v>
+      </c>
+      <c r="X3" s="1">
+        <v>216.02</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>155.97999999999999</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>183.74</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>282.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>81.69</v>
+      </c>
+      <c r="B4" s="1">
+        <v>123.47</v>
+      </c>
+      <c r="C4" s="1">
+        <v>98.38</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60.75</v>
+      </c>
+      <c r="E4" s="1">
+        <v>85.75</v>
+      </c>
+      <c r="F4" s="1">
+        <v>97.06</v>
+      </c>
+      <c r="G4" s="1">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="H4" s="1">
+        <v>78.28</v>
+      </c>
+      <c r="I4" s="1">
+        <v>105.57</v>
+      </c>
+      <c r="J4" s="1">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="K4" s="1">
+        <v>89.09</v>
+      </c>
+      <c r="L4" s="1">
+        <v>83.37</v>
+      </c>
+      <c r="M4" s="1">
+        <v>49.81</v>
+      </c>
+      <c r="N4" s="1">
+        <v>57.86</v>
+      </c>
+      <c r="O4" s="1">
+        <v>77.86</v>
+      </c>
+      <c r="P4" s="1">
+        <v>51.03</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="R4" s="1">
+        <v>126.73</v>
+      </c>
+      <c r="S4" s="1">
+        <v>57.46</v>
+      </c>
+      <c r="T4" s="1">
+        <v>41.15</v>
+      </c>
+      <c r="U4" s="1">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="V4" s="1">
+        <v>62.85</v>
+      </c>
+      <c r="W4" s="1">
+        <v>80.05</v>
+      </c>
+      <c r="X4" s="1">
+        <v>116.99</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>55.14</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>61.84</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>151.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>270.58999999999997</v>
+      </c>
+      <c r="B5" s="1">
+        <v>393.92</v>
+      </c>
+      <c r="C5" s="1">
+        <v>447.58</v>
+      </c>
+      <c r="D5" s="1">
+        <v>204.62</v>
+      </c>
+      <c r="E5" s="1">
+        <v>315.52</v>
+      </c>
+      <c r="F5" s="1">
+        <v>407.65</v>
+      </c>
+      <c r="G5" s="1">
+        <v>298.81</v>
+      </c>
+      <c r="H5" s="1">
+        <v>327.45</v>
+      </c>
+      <c r="I5" s="1">
+        <v>465.79</v>
+      </c>
+      <c r="J5" s="1">
+        <v>148.27000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>243.08</v>
+      </c>
+      <c r="L5" s="1">
+        <v>291.22000000000003</v>
+      </c>
+      <c r="M5" s="1">
+        <v>132.24</v>
+      </c>
+      <c r="N5" s="1">
+        <v>220.01</v>
+      </c>
+      <c r="O5" s="1">
+        <v>347.65</v>
+      </c>
+      <c r="P5" s="1">
+        <v>153.29</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>194.38</v>
+      </c>
+      <c r="R5" s="1">
+        <v>290.7</v>
+      </c>
+      <c r="S5" s="1">
+        <v>195.85</v>
+      </c>
+      <c r="T5" s="1">
+        <v>164.22</v>
+      </c>
+      <c r="U5" s="1">
+        <v>243.57</v>
+      </c>
+      <c r="V5" s="1">
+        <v>163.16</v>
+      </c>
+      <c r="W5" s="1">
+        <v>158.57</v>
+      </c>
+      <c r="X5" s="1">
+        <v>564.34</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>302.87</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>251.92</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>357.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>187.55</v>
+      </c>
+      <c r="B6" s="1">
+        <v>346.13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>353.71</v>
+      </c>
+      <c r="D6" s="1">
+        <v>155.32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>205.53</v>
+      </c>
+      <c r="F6" s="1">
+        <v>350.77</v>
+      </c>
+      <c r="G6" s="1">
+        <v>215.96</v>
+      </c>
+      <c r="H6" s="1">
+        <v>246.91</v>
+      </c>
+      <c r="I6" s="1">
+        <v>306.95999999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>126.86</v>
+      </c>
+      <c r="K6" s="1">
+        <v>213.37</v>
+      </c>
+      <c r="L6" s="1">
+        <v>173.04</v>
+      </c>
+      <c r="M6" s="1">
+        <v>162.88999999999999</v>
+      </c>
+      <c r="N6" s="1">
+        <v>124.91</v>
+      </c>
+      <c r="O6" s="1">
+        <v>284.56</v>
+      </c>
+      <c r="P6" s="1">
+        <v>258.83999999999997</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>176.28</v>
+      </c>
+      <c r="R6" s="1">
+        <v>381.32</v>
+      </c>
+      <c r="S6" s="1">
+        <v>173.46</v>
+      </c>
+      <c r="T6" s="1">
+        <v>161.03</v>
+      </c>
+      <c r="U6" s="1">
+        <v>173.53</v>
+      </c>
+      <c r="V6" s="1">
+        <v>139.58000000000001</v>
+      </c>
+      <c r="W6" s="1">
+        <v>218.15</v>
+      </c>
+      <c r="X6" s="1">
+        <v>526.27</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>124.93</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>188.65</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>264.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>160.02000000000001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>204.76</v>
+      </c>
+      <c r="C7" s="1">
+        <v>239.18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>94.01</v>
+      </c>
+      <c r="E7" s="1">
+        <v>131.51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>189.74</v>
+      </c>
+      <c r="G7" s="1">
+        <v>173.43</v>
+      </c>
+      <c r="H7" s="1">
+        <v>170.83</v>
+      </c>
+      <c r="I7" s="1">
+        <v>205.54</v>
+      </c>
+      <c r="J7" s="1">
+        <v>124.62</v>
+      </c>
+      <c r="K7" s="1">
+        <v>152.49</v>
+      </c>
+      <c r="L7" s="1">
+        <v>164.22</v>
+      </c>
+      <c r="M7" s="1">
+        <v>77.03</v>
+      </c>
+      <c r="N7" s="1">
+        <v>141.41</v>
+      </c>
+      <c r="O7" s="1">
+        <v>165.78</v>
+      </c>
+      <c r="P7" s="1">
+        <v>98.7</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>109.11</v>
+      </c>
+      <c r="R7" s="1">
+        <v>159.72</v>
+      </c>
+      <c r="S7" s="1">
+        <v>88.85</v>
+      </c>
+      <c r="T7" s="1">
+        <v>97.43</v>
+      </c>
+      <c r="U7" s="1">
+        <v>131.77000000000001</v>
+      </c>
+      <c r="V7" s="1">
+        <v>104.89</v>
+      </c>
+      <c r="W7" s="1">
+        <v>150.34</v>
+      </c>
+      <c r="X7" s="1">
+        <v>279.22000000000003</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>85.65</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>143.72999999999999</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>225.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>224.01</v>
+      </c>
+      <c r="B8" s="1">
+        <v>266.43</v>
+      </c>
+      <c r="C8" s="1">
+        <v>297.75</v>
+      </c>
+      <c r="D8" s="1">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>258.01</v>
+      </c>
+      <c r="F8" s="1">
+        <v>379.75</v>
+      </c>
+      <c r="G8" s="1">
+        <v>251.12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>309.05</v>
+      </c>
+      <c r="I8" s="1">
+        <v>299.81</v>
+      </c>
+      <c r="J8" s="1">
+        <v>174.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>198.95</v>
+      </c>
+      <c r="L8" s="1">
+        <v>214.42</v>
+      </c>
+      <c r="M8" s="1">
+        <v>151.16999999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>168.17</v>
+      </c>
+      <c r="O8" s="1">
+        <v>274.48</v>
+      </c>
+      <c r="P8" s="1">
+        <v>122.28</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>218.28</v>
+      </c>
+      <c r="R8" s="1">
+        <v>316.36</v>
+      </c>
+      <c r="S8" s="1">
+        <v>140.38999999999999</v>
+      </c>
+      <c r="T8" s="1">
+        <v>141.03</v>
+      </c>
+      <c r="U8" s="1">
+        <v>126.19</v>
+      </c>
+      <c r="V8" s="1">
+        <v>114.91</v>
+      </c>
+      <c r="W8" s="1">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="X8" s="1">
+        <v>454.12</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>294.41000000000003</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>231.06</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>309.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>101.76</v>
+      </c>
+      <c r="B9" s="1">
+        <v>141.44</v>
+      </c>
+      <c r="C9" s="1">
+        <v>185.77</v>
+      </c>
+      <c r="D9" s="1">
+        <v>82.03</v>
+      </c>
+      <c r="E9" s="1">
+        <v>61.72</v>
+      </c>
+      <c r="F9" s="1">
+        <v>76.16</v>
+      </c>
+      <c r="G9" s="1">
+        <v>119.21</v>
+      </c>
+      <c r="H9" s="1">
+        <v>161.21</v>
+      </c>
+      <c r="I9" s="1">
+        <v>129.53</v>
+      </c>
+      <c r="J9" s="1">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="K9" s="1">
+        <v>113.16</v>
+      </c>
+      <c r="L9" s="1">
+        <v>100.57</v>
+      </c>
+      <c r="M9" s="1">
+        <v>51.04</v>
+      </c>
+      <c r="N9" s="1">
+        <v>75.83</v>
+      </c>
+      <c r="O9" s="1">
+        <v>127.97</v>
+      </c>
+      <c r="P9" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>119.91</v>
+      </c>
+      <c r="R9" s="1">
+        <v>158.4</v>
+      </c>
+      <c r="S9" s="1">
+        <v>40.590000000000003</v>
+      </c>
+      <c r="T9" s="1">
+        <v>55.4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>82.64</v>
+      </c>
+      <c r="V9" s="1">
+        <v>80.33</v>
+      </c>
+      <c r="W9" s="1">
+        <v>69.7</v>
+      </c>
+      <c r="X9" s="1">
+        <v>115.98</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>44.22</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>93.42</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>95.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>192.92</v>
+      </c>
+      <c r="B10" s="1">
+        <v>260.73</v>
+      </c>
+      <c r="C10" s="1">
+        <v>245.86</v>
+      </c>
+      <c r="D10" s="1">
+        <v>93.81</v>
+      </c>
+      <c r="E10" s="1">
+        <v>113.65</v>
+      </c>
+      <c r="F10" s="1">
+        <v>222.19</v>
+      </c>
+      <c r="G10" s="1">
+        <v>201.4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>179.88</v>
+      </c>
+      <c r="I10" s="1">
+        <v>172.75</v>
+      </c>
+      <c r="J10" s="1">
+        <v>106.41</v>
+      </c>
+      <c r="K10" s="1">
+        <v>152.08000000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>187.29</v>
+      </c>
+      <c r="M10" s="1">
+        <v>59.82</v>
+      </c>
+      <c r="N10" s="1">
+        <v>141.22</v>
+      </c>
+      <c r="O10" s="1">
+        <v>204.74</v>
+      </c>
+      <c r="P10" s="1">
+        <v>134.65</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>101.39</v>
+      </c>
+      <c r="R10" s="1">
+        <v>324.37</v>
+      </c>
+      <c r="S10" s="1">
+        <v>88</v>
+      </c>
+      <c r="T10" s="1">
+        <v>113.93</v>
+      </c>
+      <c r="U10" s="1">
+        <v>88.4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>96.65</v>
+      </c>
+      <c r="W10" s="1">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="X10" s="1">
+        <v>248.74</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>106.06</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>221.06</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>247.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>100.72</v>
+      </c>
+      <c r="B11" s="1">
+        <v>81.290000000000006</v>
+      </c>
+      <c r="C11" s="1">
+        <v>113.31</v>
+      </c>
+      <c r="D11" s="1">
+        <v>61.61</v>
+      </c>
+      <c r="E11" s="1">
+        <v>66.12</v>
+      </c>
+      <c r="F11" s="1">
+        <v>90.38</v>
+      </c>
+      <c r="G11" s="1">
+        <v>97.87</v>
+      </c>
+      <c r="H11" s="1">
+        <v>88.54</v>
+      </c>
+      <c r="I11" s="1">
+        <v>97.9</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44.01</v>
+      </c>
+      <c r="K11" s="1">
+        <v>120.01</v>
+      </c>
+      <c r="L11" s="1">
+        <v>70.47</v>
+      </c>
+      <c r="M11" s="1">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="N11" s="1">
+        <v>62.19</v>
+      </c>
+      <c r="O11" s="1">
+        <v>90.95</v>
+      </c>
+      <c r="P11" s="1">
+        <v>63.11</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>65.23</v>
+      </c>
+      <c r="R11" s="1">
+        <v>143.99</v>
+      </c>
+      <c r="S11" s="1">
+        <v>63.85</v>
+      </c>
+      <c r="T11" s="1">
+        <v>50.71</v>
+      </c>
+      <c r="U11" s="1">
+        <v>68.91</v>
+      </c>
+      <c r="V11" s="1">
+        <v>57.16</v>
+      </c>
+      <c r="W11" s="1">
+        <v>115.62</v>
+      </c>
+      <c r="X11" s="1">
+        <v>149.38999999999999</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>40.29</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>110.28</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>116.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>206.82</v>
+      </c>
+      <c r="B12" s="1">
+        <v>288.55</v>
+      </c>
+      <c r="C12" s="1">
+        <v>359.78</v>
+      </c>
+      <c r="D12" s="1">
+        <v>165.39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>253.23</v>
+      </c>
+      <c r="F12" s="1">
+        <v>337.08</v>
+      </c>
+      <c r="G12" s="1">
+        <v>145.77000000000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>206.83</v>
+      </c>
+      <c r="I12" s="1">
+        <v>203.51</v>
+      </c>
+      <c r="J12" s="1">
+        <v>157.33000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>122.55</v>
+      </c>
+      <c r="L12" s="1">
+        <v>159.72999999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>74.81</v>
+      </c>
+      <c r="N12" s="1">
+        <v>182.75</v>
+      </c>
+      <c r="O12" s="1">
+        <v>294.98</v>
+      </c>
+      <c r="P12" s="1">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>150.6</v>
+      </c>
+      <c r="R12" s="1">
+        <v>452.67</v>
+      </c>
+      <c r="S12" s="1">
+        <v>84.03</v>
+      </c>
+      <c r="T12" s="1">
+        <v>85.91</v>
+      </c>
+      <c r="U12" s="1">
+        <v>138.49</v>
+      </c>
+      <c r="V12" s="1">
+        <v>121.5</v>
+      </c>
+      <c r="W12" s="1">
+        <v>234.97</v>
+      </c>
+      <c r="X12" s="1">
+        <v>465.46</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>155.97</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>183.93</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>344.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>184</v>
+      </c>
+      <c r="B13" s="1">
+        <v>274.23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>336.07</v>
+      </c>
+      <c r="D13" s="1">
+        <v>117.86</v>
+      </c>
+      <c r="E13" s="1">
+        <v>208.75</v>
+      </c>
+      <c r="F13" s="1">
+        <v>300.3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>218.17</v>
+      </c>
+      <c r="H13" s="1">
+        <v>170.25</v>
+      </c>
+      <c r="I13" s="1">
+        <v>218.9</v>
+      </c>
+      <c r="J13" s="1">
+        <v>176.8</v>
+      </c>
+      <c r="K13" s="1">
+        <v>244.74</v>
+      </c>
+      <c r="L13" s="1">
+        <v>203.93</v>
+      </c>
+      <c r="M13" s="1">
+        <v>208.39</v>
+      </c>
+      <c r="N13" s="1">
+        <v>178.44</v>
+      </c>
+      <c r="O13" s="1">
+        <v>290.93</v>
+      </c>
+      <c r="P13" s="1">
+        <v>109.62</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>177.49</v>
+      </c>
+      <c r="R13" s="1">
+        <v>357.52</v>
+      </c>
+      <c r="S13" s="1">
+        <v>112.28</v>
+      </c>
+      <c r="T13" s="1">
+        <v>91.87</v>
+      </c>
+      <c r="U13" s="1">
+        <v>128.03</v>
+      </c>
+      <c r="V13" s="1">
+        <v>91.11</v>
+      </c>
+      <c r="W13" s="1">
+        <v>212.3</v>
+      </c>
+      <c r="X13" s="1">
+        <v>508.97</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>93.49</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>206.11</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>332.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>94.93</v>
+      </c>
+      <c r="B14" s="1">
+        <v>119.79</v>
+      </c>
+      <c r="C14" s="1">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>71.37</v>
+      </c>
+      <c r="E14" s="1">
+        <v>89.88</v>
+      </c>
+      <c r="F14" s="1">
+        <v>95.14</v>
+      </c>
+      <c r="G14" s="1">
+        <v>105.81</v>
+      </c>
+      <c r="H14" s="1">
+        <v>126.49</v>
+      </c>
+      <c r="I14" s="1">
+        <v>103.99</v>
+      </c>
+      <c r="J14" s="1">
+        <v>79.709999999999994</v>
+      </c>
+      <c r="K14" s="1">
+        <v>87.02</v>
+      </c>
+      <c r="L14" s="1">
+        <v>95.73</v>
+      </c>
+      <c r="M14" s="1">
+        <v>120.83</v>
+      </c>
+      <c r="N14" s="1">
+        <v>96.45</v>
+      </c>
+      <c r="O14" s="1">
+        <v>126.65</v>
+      </c>
+      <c r="P14" s="1">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>88.01</v>
+      </c>
+      <c r="R14" s="1">
+        <v>157.38999999999999</v>
+      </c>
+      <c r="S14" s="1">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="T14" s="1">
+        <v>70.62</v>
+      </c>
+      <c r="U14" s="1">
+        <v>78.91</v>
+      </c>
+      <c r="V14" s="1">
+        <v>117.61</v>
+      </c>
+      <c r="W14" s="1">
+        <v>113.28</v>
+      </c>
+      <c r="X14" s="1">
+        <v>259.66000000000003</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>94.42</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>115.91</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>151.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>158.04</v>
+      </c>
+      <c r="B16" s="1">
+        <v>223.53</v>
+      </c>
+      <c r="C16" s="1">
+        <v>254.95</v>
+      </c>
+      <c r="D16" s="1">
+        <v>117.05</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E2:E14)/13</f>
+        <v>161.21692307692308</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F2:F14)/13</f>
+        <v>227.3469230769231</v>
+      </c>
+      <c r="G16">
+        <f>SUM(G2:G14)/13</f>
+        <v>166.84307692307692</v>
+      </c>
+      <c r="H16">
+        <f>SUM(H2:H14)/13</f>
+        <v>178.88153846153844</v>
+      </c>
+      <c r="I16">
+        <f>SUM(I2:I14)/13</f>
+        <v>209.74307692307687</v>
+      </c>
+      <c r="J16">
+        <f>SUM(J2:J14)/13</f>
+        <v>115.27923076923076</v>
+      </c>
+      <c r="K16">
+        <f>SUM(K2:K14)/13</f>
+        <v>155.03153846153847</v>
+      </c>
+      <c r="L16">
+        <f>SUM(L2:L14)/13</f>
+        <v>155.65</v>
+      </c>
+      <c r="M16">
+        <f>SUM(M2:M14)/13</f>
+        <v>98.235384615384618</v>
+      </c>
+      <c r="N16">
+        <f>SUM(N2:N14)/13</f>
+        <v>128.23461538461541</v>
+      </c>
+      <c r="O16">
+        <f>SUM(O2:O14)/13</f>
+        <v>199.82461538461541</v>
+      </c>
+      <c r="P16">
+        <f>SUM(P2:P14)/13</f>
+        <v>109.74846153846154</v>
+      </c>
+      <c r="Q16">
+        <f>SUM(Q2:Q14)/13</f>
+        <v>125.91692307692308</v>
+      </c>
+      <c r="R16">
+        <f>SUM(R2:R14)/13</f>
+        <v>254.03692307692305</v>
+      </c>
+      <c r="S16">
+        <f>SUM(S2:S14)/13</f>
+        <v>97.48846153846155</v>
+      </c>
+      <c r="T16">
+        <f>SUM(T2:T14)/13</f>
+        <v>91.843846153846144</v>
+      </c>
+      <c r="U16">
+        <f>SUM(U2:U14)/13</f>
+        <v>122.3969230769231</v>
+      </c>
+      <c r="V16">
+        <f>SUM(V2:V14)/13</f>
+        <v>102.0076923076923</v>
+      </c>
+      <c r="W16">
+        <f>SUM(W2:W14)/13</f>
+        <v>155.61769230769229</v>
+      </c>
+      <c r="X16">
+        <f>SUM(X2:X14)/13</f>
+        <v>311.91076923076923</v>
+      </c>
+      <c r="Y16">
+        <f>SUM(Y2:Y14)/13</f>
+        <v>130.57692307692307</v>
+      </c>
+      <c r="Z16">
+        <f>SUM(Z2:Z14)/13</f>
+        <v>164.02076923076922</v>
+      </c>
+      <c r="AA16">
+        <f>SUM(AA2:AA14)/13</f>
+        <v>244.55769230769226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="T19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>70.36</v>
+      </c>
+      <c r="B20" s="1">
+        <v>65.489999999999995</v>
+      </c>
+      <c r="C20" s="1">
+        <v>103.09</v>
+      </c>
+      <c r="D20" s="1">
+        <v>50.15</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>80.45</v>
+      </c>
+      <c r="G20" s="1">
+        <v>84.01</v>
+      </c>
+      <c r="H20" s="1">
+        <v>75.55</v>
+      </c>
+      <c r="I20" s="1">
+        <v>107.61</v>
+      </c>
+      <c r="J20" s="1">
+        <v>71.08</v>
+      </c>
+      <c r="K20" s="1">
+        <v>76.33</v>
+      </c>
+      <c r="L20" s="1">
+        <v>73.19</v>
+      </c>
+      <c r="M20" s="1">
+        <v>60.96</v>
+      </c>
+      <c r="N20" s="1">
+        <v>52.39</v>
+      </c>
+      <c r="O20" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="P20" s="1">
+        <v>69.12</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>69.34</v>
+      </c>
+      <c r="R20" s="1">
+        <v>95.44</v>
+      </c>
+      <c r="S20" s="1">
+        <v>65.31</v>
+      </c>
+      <c r="T20" s="1">
+        <v>49.77</v>
+      </c>
+      <c r="U20" s="1">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="V20" s="1">
+        <v>56.51</v>
+      </c>
+      <c r="W20" s="1">
+        <v>81.61</v>
+      </c>
+      <c r="X20" s="1">
+        <v>100.59</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>83.71</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>111.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>129.16999999999999</v>
+      </c>
+      <c r="B21" s="1">
+        <v>184.37</v>
+      </c>
+      <c r="C21" s="1">
+        <v>222.97</v>
+      </c>
+      <c r="D21" s="1">
+        <v>110.14</v>
+      </c>
+      <c r="E21" s="1">
+        <v>114.29</v>
+      </c>
+      <c r="F21" s="1">
+        <v>171.76</v>
+      </c>
+      <c r="G21" s="1">
+        <v>130.04</v>
+      </c>
+      <c r="H21" s="1">
+        <v>128.11000000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>132.72</v>
+      </c>
+      <c r="J21" s="1">
+        <v>96.89</v>
+      </c>
+      <c r="K21" s="1">
+        <v>103.31</v>
+      </c>
+      <c r="L21" s="1">
+        <v>95.93</v>
+      </c>
+      <c r="M21" s="1">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="N21" s="1">
+        <v>110.61</v>
+      </c>
+      <c r="O21" s="1">
+        <v>122.1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>97.12</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>94.9</v>
+      </c>
+      <c r="R21" s="1">
+        <v>221.73</v>
+      </c>
+      <c r="S21" s="1">
+        <v>77.349999999999994</v>
+      </c>
+      <c r="T21" s="1">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="U21" s="1">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="V21" s="1">
+        <v>86.25</v>
+      </c>
+      <c r="W21" s="1">
+        <v>107.13</v>
+      </c>
+      <c r="X21" s="1">
+        <v>151.13999999999999</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>114.88</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>150.27000000000001</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>254.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="B22" s="1">
+        <v>80.86</v>
+      </c>
+      <c r="C22" s="1">
+        <v>88.92</v>
+      </c>
+      <c r="D22" s="1">
+        <v>42.05</v>
+      </c>
+      <c r="E22" s="1">
+        <v>63.51</v>
+      </c>
+      <c r="F22" s="1">
+        <v>71.67</v>
+      </c>
+      <c r="G22" s="1">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="H22" s="1">
+        <v>71.27</v>
+      </c>
+      <c r="I22" s="1">
+        <v>109.18</v>
+      </c>
+      <c r="J22" s="1">
+        <v>51.35</v>
+      </c>
+      <c r="K22" s="1">
+        <v>67.77</v>
+      </c>
+      <c r="L22" s="1">
+        <v>57.94</v>
+      </c>
+      <c r="M22" s="1">
+        <v>38.68</v>
+      </c>
+      <c r="N22" s="1">
+        <v>50.59</v>
+      </c>
+      <c r="O22" s="1">
+        <v>59.28</v>
+      </c>
+      <c r="P22" s="1">
+        <v>39.96</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>54.88</v>
+      </c>
+      <c r="R22" s="1">
+        <v>90.52</v>
+      </c>
+      <c r="S22" s="1">
+        <v>56.66</v>
+      </c>
+      <c r="T22" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="U22" s="1">
+        <v>59</v>
+      </c>
+      <c r="V22" s="1">
+        <v>32.79</v>
+      </c>
+      <c r="W22" s="1">
+        <v>76.28</v>
+      </c>
+      <c r="X22" s="1">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>30.23</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>61.44</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>85.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>139.37</v>
+      </c>
+      <c r="B23" s="1">
+        <v>194.7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>180.26</v>
+      </c>
+      <c r="D23" s="1">
+        <v>95.58</v>
+      </c>
+      <c r="E23" s="1">
+        <v>111.14</v>
+      </c>
+      <c r="F23" s="1">
+        <v>235.51</v>
+      </c>
+      <c r="G23" s="1">
+        <v>150.35</v>
+      </c>
+      <c r="H23" s="1">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="I23" s="1">
+        <v>144.91</v>
+      </c>
+      <c r="J23" s="1">
+        <v>114.17</v>
+      </c>
+      <c r="K23" s="1">
+        <v>127.06</v>
+      </c>
+      <c r="L23" s="1">
+        <v>135.46</v>
+      </c>
+      <c r="M23" s="1">
+        <v>89.31</v>
+      </c>
+      <c r="N23" s="1">
+        <v>116.63</v>
+      </c>
+      <c r="O23" s="1">
+        <v>160.03</v>
+      </c>
+      <c r="P23" s="1">
+        <v>68.48</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>105.55</v>
+      </c>
+      <c r="R23" s="1">
+        <v>187.21</v>
+      </c>
+      <c r="S23" s="1">
+        <v>83.12</v>
+      </c>
+      <c r="T23" s="1">
+        <v>69.75</v>
+      </c>
+      <c r="U23" s="1">
+        <v>67.95</v>
+      </c>
+      <c r="V23" s="1">
+        <v>96.61</v>
+      </c>
+      <c r="W23" s="1">
+        <v>109.51</v>
+      </c>
+      <c r="X23" s="1">
+        <v>344.3</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>114.79</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>152.81</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>245.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>128.44</v>
+      </c>
+      <c r="B24" s="1">
+        <v>143.41999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>159.08000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>80.03</v>
+      </c>
+      <c r="E24" s="1">
+        <v>84.08</v>
+      </c>
+      <c r="F24" s="1">
+        <v>109.73</v>
+      </c>
+      <c r="G24" s="1">
+        <v>114.05</v>
+      </c>
+      <c r="H24" s="1">
+        <v>150.53</v>
+      </c>
+      <c r="I24" s="1">
+        <v>87.58</v>
+      </c>
+      <c r="J24" s="1">
+        <v>78.61</v>
+      </c>
+      <c r="K24" s="1">
+        <v>127.78</v>
+      </c>
+      <c r="L24" s="1">
+        <v>118.52</v>
+      </c>
+      <c r="M24" s="1">
+        <v>90.44</v>
+      </c>
+      <c r="N24" s="1">
+        <v>62.95</v>
+      </c>
+      <c r="O24" s="1">
+        <v>112.05</v>
+      </c>
+      <c r="P24" s="1">
+        <v>88.79</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>73.39</v>
+      </c>
+      <c r="R24" s="1">
+        <v>214.63</v>
+      </c>
+      <c r="S24" s="1">
+        <v>68.680000000000007</v>
+      </c>
+      <c r="T24" s="1">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="U24" s="1">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="V24" s="1">
+        <v>52.29</v>
+      </c>
+      <c r="W24" s="1">
+        <v>89.81</v>
+      </c>
+      <c r="X24" s="1">
+        <v>120.75</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>54.93</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>91.22</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>258.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>88.75</v>
+      </c>
+      <c r="B25" s="1">
+        <v>92.84</v>
+      </c>
+      <c r="C25" s="1">
+        <v>108.04</v>
+      </c>
+      <c r="D25" s="1">
+        <v>75.27</v>
+      </c>
+      <c r="E25" s="1">
+        <v>63.16</v>
+      </c>
+      <c r="F25" s="1">
+        <v>93.88</v>
+      </c>
+      <c r="G25" s="1">
+        <v>94.62</v>
+      </c>
+      <c r="H25" s="1">
+        <v>91.93</v>
+      </c>
+      <c r="I25" s="1">
+        <v>122.84</v>
+      </c>
+      <c r="J25" s="1">
+        <v>71.02</v>
+      </c>
+      <c r="K25" s="1">
+        <v>90.32</v>
+      </c>
+      <c r="L25" s="1">
+        <v>55.27</v>
+      </c>
+      <c r="M25" s="1">
+        <v>68.83</v>
+      </c>
+      <c r="N25" s="1">
+        <v>95.82</v>
+      </c>
+      <c r="O25" s="1">
+        <v>87.54</v>
+      </c>
+      <c r="P25" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>94.17</v>
+      </c>
+      <c r="R25" s="1">
+        <v>114.62</v>
+      </c>
+      <c r="S25" s="1">
+        <v>63.67</v>
+      </c>
+      <c r="T25" s="1">
+        <v>75.58</v>
+      </c>
+      <c r="U25" s="1">
+        <v>70.56</v>
+      </c>
+      <c r="V25" s="1">
+        <v>106.56</v>
+      </c>
+      <c r="W25" s="1">
+        <v>131.36000000000001</v>
+      </c>
+      <c r="X25" s="1">
+        <v>210.08</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>75.36</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>90.03</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>92.07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>103.94</v>
+      </c>
+      <c r="B26" s="1">
+        <v>130.75</v>
+      </c>
+      <c r="C26" s="1">
+        <v>150.69</v>
+      </c>
+      <c r="D26" s="1">
+        <v>76.03</v>
+      </c>
+      <c r="E26" s="1">
+        <v>81.489999999999995</v>
+      </c>
+      <c r="F26" s="1">
+        <v>88.69</v>
+      </c>
+      <c r="G26" s="1">
+        <v>118.03</v>
+      </c>
+      <c r="H26" s="1">
+        <v>114.16</v>
+      </c>
+      <c r="I26" s="1">
+        <v>123.02</v>
+      </c>
+      <c r="J26" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>109.22</v>
+      </c>
+      <c r="L26" s="1">
+        <v>94.65</v>
+      </c>
+      <c r="M26" s="1">
+        <v>56.56</v>
+      </c>
+      <c r="N26" s="1">
+        <v>131.27000000000001</v>
+      </c>
+      <c r="O26" s="1">
+        <v>101.66</v>
+      </c>
+      <c r="P26" s="1">
+        <v>64.75</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>78.05</v>
+      </c>
+      <c r="R26" s="1">
+        <v>239.48</v>
+      </c>
+      <c r="S26" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="T26" s="1">
+        <v>55.77</v>
+      </c>
+      <c r="U26" s="1">
+        <v>73.77</v>
+      </c>
+      <c r="V26" s="1">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="W26" s="1">
+        <v>83.97</v>
+      </c>
+      <c r="X26" s="1">
+        <v>96.74</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>57.51</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>115.51</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>177.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>160.43</v>
+      </c>
+      <c r="B27" s="1">
+        <v>178.81</v>
+      </c>
+      <c r="C27" s="1">
+        <v>160.9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>95.51</v>
+      </c>
+      <c r="E27" s="1">
+        <v>107.72</v>
+      </c>
+      <c r="F27" s="1">
+        <v>126.72</v>
+      </c>
+      <c r="G27" s="1">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>129.76</v>
+      </c>
+      <c r="I27" s="1">
+        <v>146.12</v>
+      </c>
+      <c r="J27" s="1">
+        <v>91.7</v>
+      </c>
+      <c r="K27" s="1">
+        <v>130.13999999999999</v>
+      </c>
+      <c r="L27" s="1">
+        <v>137.61000000000001</v>
+      </c>
+      <c r="M27" s="1">
+        <v>74.87</v>
+      </c>
+      <c r="N27" s="1">
+        <v>114.74</v>
+      </c>
+      <c r="O27" s="1">
+        <v>130.47999999999999</v>
+      </c>
+      <c r="P27" s="1">
+        <v>118.33</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>107.77</v>
+      </c>
+      <c r="R27" s="1">
+        <v>158.07</v>
+      </c>
+      <c r="S27" s="1">
+        <v>69.12</v>
+      </c>
+      <c r="T27" s="1">
+        <v>85.33</v>
+      </c>
+      <c r="U27" s="1">
+        <v>108.4</v>
+      </c>
+      <c r="V27" s="1">
+        <v>102.51</v>
+      </c>
+      <c r="W27" s="1">
+        <v>128.28</v>
+      </c>
+      <c r="X27" s="1">
+        <v>200.01</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>102.73</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>128.94999999999999</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>164.54</v>
+      </c>
+      <c r="B28" s="1">
+        <v>168.57</v>
+      </c>
+      <c r="C28" s="1">
+        <v>178.59</v>
+      </c>
+      <c r="D28" s="1">
+        <v>87.82</v>
+      </c>
+      <c r="E28" s="1">
+        <v>54.35</v>
+      </c>
+      <c r="F28" s="1">
+        <v>174.23</v>
+      </c>
+      <c r="G28" s="1">
+        <v>112.25</v>
+      </c>
+      <c r="H28" s="1">
+        <v>153.9</v>
+      </c>
+      <c r="I28" s="1">
+        <v>166.2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>78.13</v>
+      </c>
+      <c r="K28" s="1">
+        <v>83.91</v>
+      </c>
+      <c r="L28" s="1">
+        <v>98.12</v>
+      </c>
+      <c r="M28" s="1">
+        <v>46.01</v>
+      </c>
+      <c r="N28" s="1">
+        <v>93.87</v>
+      </c>
+      <c r="O28" s="1">
+        <v>96.96</v>
+      </c>
+      <c r="P28" s="1">
+        <v>83.46</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>88.07</v>
+      </c>
+      <c r="R28" s="1">
+        <v>189.41</v>
+      </c>
+      <c r="S28" s="1">
+        <v>43.01</v>
+      </c>
+      <c r="T28" s="1">
+        <v>81.760000000000005</v>
+      </c>
+      <c r="U28" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="V28" s="1">
+        <v>102</v>
+      </c>
+      <c r="W28" s="1">
+        <v>103.69</v>
+      </c>
+      <c r="X28" s="1">
+        <v>164.61</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>105.96</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>300.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>190.4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>235.85</v>
+      </c>
+      <c r="C29" s="1">
+        <v>277.88</v>
+      </c>
+      <c r="D29" s="1">
+        <v>130.94999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>117.65</v>
+      </c>
+      <c r="F29" s="1">
+        <v>224.4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>477.44</v>
+      </c>
+      <c r="H29" s="1">
+        <v>211.83</v>
+      </c>
+      <c r="I29" s="1">
+        <v>184.44</v>
+      </c>
+      <c r="J29" s="1">
+        <v>113.84</v>
+      </c>
+      <c r="K29" s="1">
+        <v>189.53</v>
+      </c>
+      <c r="L29" s="1">
+        <v>164.68</v>
+      </c>
+      <c r="M29" s="1">
+        <v>116.87</v>
+      </c>
+      <c r="N29" s="1">
+        <v>137.22999999999999</v>
+      </c>
+      <c r="O29" s="1">
+        <v>216.28</v>
+      </c>
+      <c r="P29" s="1">
+        <v>147.77000000000001</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>144.63999999999999</v>
+      </c>
+      <c r="R29" s="1">
+        <v>293.08</v>
+      </c>
+      <c r="S29" s="1">
+        <v>103.05</v>
+      </c>
+      <c r="T29" s="1">
+        <v>118.5</v>
+      </c>
+      <c r="U29" s="1">
+        <v>129.76</v>
+      </c>
+      <c r="V29" s="1">
+        <v>126.77</v>
+      </c>
+      <c r="W29" s="1">
+        <v>193.43</v>
+      </c>
+      <c r="X29" s="1">
+        <v>390.72</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>106.74</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>171.4</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>312.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>162.91</v>
+      </c>
+      <c r="B30" s="1">
+        <v>191.13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>206.81</v>
+      </c>
+      <c r="D30" s="1">
+        <v>140.68</v>
+      </c>
+      <c r="E30" s="1">
+        <v>156.4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>190.63</v>
+      </c>
+      <c r="G30" s="1">
+        <v>175.91</v>
+      </c>
+      <c r="H30" s="1">
+        <v>164.6</v>
+      </c>
+      <c r="I30" s="1">
+        <v>201.64</v>
+      </c>
+      <c r="J30" s="1">
+        <v>162.59</v>
+      </c>
+      <c r="K30" s="1">
+        <v>168.24</v>
+      </c>
+      <c r="L30" s="1">
+        <v>164.49</v>
+      </c>
+      <c r="M30" s="1">
+        <v>94.33</v>
+      </c>
+      <c r="N30" s="1">
+        <v>108.23</v>
+      </c>
+      <c r="O30" s="1">
+        <v>143.55000000000001</v>
+      </c>
+      <c r="P30" s="1">
+        <v>214.94</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>167.27</v>
+      </c>
+      <c r="R30" s="1">
+        <v>362.92</v>
+      </c>
+      <c r="S30" s="1">
+        <v>122.83</v>
+      </c>
+      <c r="T30" s="1">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="U30" s="1">
+        <v>117.79</v>
+      </c>
+      <c r="V30" s="1">
+        <v>108.44</v>
+      </c>
+      <c r="W30" s="1">
+        <v>161.16999999999999</v>
+      </c>
+      <c r="X30" s="1">
+        <v>284.29000000000002</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>81.16</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>213.25</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>245.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>167.91</v>
+      </c>
+      <c r="B31" s="1">
+        <v>216.78</v>
+      </c>
+      <c r="C31" s="1">
+        <v>272.31</v>
+      </c>
+      <c r="D31" s="1">
+        <v>130.05000000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>164.24</v>
+      </c>
+      <c r="F31" s="1">
+        <v>208.06</v>
+      </c>
+      <c r="G31" s="1">
+        <v>140.66999999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>178.46</v>
+      </c>
+      <c r="I31" s="1">
+        <v>215.43</v>
+      </c>
+      <c r="J31" s="1">
+        <v>158.61000000000001</v>
+      </c>
+      <c r="K31" s="1">
+        <v>193.26</v>
+      </c>
+      <c r="L31" s="1">
+        <v>164.51</v>
+      </c>
+      <c r="M31" s="1">
+        <v>93.63</v>
+      </c>
+      <c r="N31" s="1">
+        <v>134.22</v>
+      </c>
+      <c r="O31" s="1">
+        <v>238.91</v>
+      </c>
+      <c r="P31" s="1">
+        <v>112.09</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>166.61</v>
+      </c>
+      <c r="R31" s="1">
+        <v>280.8</v>
+      </c>
+      <c r="S31" s="1">
+        <v>122.98</v>
+      </c>
+      <c r="T31" s="1">
+        <v>135.4</v>
+      </c>
+      <c r="U31" s="1">
+        <v>165.01</v>
+      </c>
+      <c r="V31" s="1">
+        <v>125</v>
+      </c>
+      <c r="W31" s="1">
+        <v>210.69</v>
+      </c>
+      <c r="X31" s="1">
+        <v>235.24</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>125.43</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>189.27</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>270.27999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>58.37</v>
+      </c>
+      <c r="B32" s="1">
+        <v>62.88</v>
+      </c>
+      <c r="C32" s="1">
+        <v>59.47</v>
+      </c>
+      <c r="D32" s="1">
+        <v>53.99</v>
+      </c>
+      <c r="E32" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="F32" s="1">
+        <v>53.15</v>
+      </c>
+      <c r="G32" s="1">
+        <v>111.05</v>
+      </c>
+      <c r="H32" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="I32" s="1">
+        <v>62</v>
+      </c>
+      <c r="J32" s="1">
+        <v>53.42</v>
+      </c>
+      <c r="K32" s="1">
+        <v>62.19</v>
+      </c>
+      <c r="L32" s="1">
+        <v>89.71</v>
+      </c>
+      <c r="M32" s="1">
+        <v>30.49</v>
+      </c>
+      <c r="N32" s="1">
+        <v>32.18</v>
+      </c>
+      <c r="O32" s="1">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="P32" s="1">
+        <v>51.02</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>47.79</v>
+      </c>
+      <c r="R32" s="1">
+        <v>52.46</v>
+      </c>
+      <c r="S32" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="T32" s="1">
+        <v>49.06</v>
+      </c>
+      <c r="U32" s="1">
+        <v>79.27</v>
+      </c>
+      <c r="V32" s="1">
+        <v>47.75</v>
+      </c>
+      <c r="W32" s="1">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="X32" s="1">
+        <v>85</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>142.53</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>97.27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>125.71</v>
+      </c>
+      <c r="B34" s="1">
+        <v>149.72999999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>166.84</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D20:D32)/13</f>
+        <v>89.865384615384613</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E20:E32)/13</f>
+        <v>93.50230769230771</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F20:F32)/13</f>
+        <v>140.68307692307692</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G20:G32)/13</f>
+        <v>147.66384615384615</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H20:H32)/13</f>
+        <v>129.6</v>
+      </c>
+      <c r="I34">
+        <f>SUM(I20:I32)/13</f>
+        <v>138.74538461538464</v>
+      </c>
+      <c r="J34">
+        <f>SUM(J20:J32)/13</f>
+        <v>93.531538461538489</v>
+      </c>
+      <c r="K34">
+        <f>SUM(K20:K32)/13</f>
+        <v>117.61999999999999</v>
+      </c>
+      <c r="L34">
+        <f>SUM(L20:L32)/13</f>
+        <v>111.54461538461538</v>
+      </c>
+      <c r="M34">
+        <f>SUM(M20:M32)/13</f>
+        <v>72.074615384615385</v>
+      </c>
+      <c r="N34">
+        <f>SUM(N20:N32)/13</f>
+        <v>95.440769230769234</v>
+      </c>
+      <c r="O34">
+        <f>SUM(O20:O32)/13</f>
+        <v>119.50461538461538</v>
+      </c>
+      <c r="P34">
+        <f>SUM(P20:P32)/13</f>
+        <v>93.248461538461541</v>
+      </c>
+      <c r="Q34">
+        <f>SUM(Q20:Q32)/13</f>
+        <v>99.417692307692292</v>
+      </c>
+      <c r="R34">
+        <f>SUM(R20:R32)/13</f>
+        <v>192.33615384615385</v>
+      </c>
+      <c r="S34">
+        <f>SUM(S20:S32)/13</f>
+        <v>73.452307692307699</v>
+      </c>
+      <c r="T34">
+        <f>SUM(T20:T32)/13</f>
+        <v>77.364615384615391</v>
+      </c>
+      <c r="U34">
+        <f>SUM(U20:U32)/13</f>
+        <v>89.47999999999999</v>
+      </c>
+      <c r="V34">
+        <f>SUM(V20:V32)/13</f>
+        <v>83.379230769230773</v>
+      </c>
+      <c r="W34">
+        <f>SUM(W20:W32)/13</f>
+        <v>119.2069230769231</v>
+      </c>
+      <c r="X34">
+        <f>SUM(X20:X32)/13</f>
+        <v>189.24846153846158</v>
+      </c>
+      <c r="Y34">
+        <f>SUM(Y20:Y32)/13</f>
+        <v>82.091538461538462</v>
+      </c>
+      <c r="Z34">
+        <f>SUM(Z20:Z32)/13</f>
+        <v>129.4946153846154</v>
+      </c>
+      <c r="AA34">
+        <f>SUM(AA20:AA32)/13</f>
+        <v>198.22461538461536</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <f>SUM(A16,D16,G16,J16,M16,P16,S16,V16,Y16)/9</f>
+        <v>121.69658119658119</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <f>SUM(B16,E16,H16,K16,N16,Q16,T16,W16,Z16)/9</f>
+        <v>153.81042735042737</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>121.7</v>
+      </c>
+      <c r="F38">
+        <v>95.69</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38">
+        <f>B37/B40</f>
+        <v>1.2720646963072286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <f>SUM(C16,F16,I16,L16,O16,R16,U16,X16,AA16)/9</f>
+        <v>220.04632478632479</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>153.81</v>
+      </c>
+      <c r="F39">
+        <v>112.38</v>
+      </c>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39">
+        <f>B38/B41</f>
+        <v>1.3687220012321362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <f>SUM(A34,D34,G34,J34,M34,P34,S34,V34,Y34)/9</f>
+        <v>95.668547008547023</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>220.05</v>
+      </c>
+      <c r="F40">
+        <v>149.62</v>
+      </c>
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40">
+        <f>B39/B42</f>
+        <v>1.4706718710102715</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <f>SUM(B34,E34,H34,K34,N34,Q34,T34,W34,Z34)/9</f>
+        <v>112.37521367521367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <f>SUM(C34,F34,I34,L34,O34,R34,U34,X34,AA34)/9</f>
+        <v>149.62299145299144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <f>B37-B40</f>
+        <v>26.028034188034169</v>
+      </c>
+      <c r="G45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45">
+        <f>SUM(E38,F38)/2</f>
+        <v>108.69499999999999</v>
+      </c>
+      <c r="J45">
+        <v>1.22448135</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.18329999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <f>B38-B41</f>
+        <v>41.435213675213703</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46">
+        <f>SUM(E39,F39)/2</f>
+        <v>133.095</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47">
+        <f>B39-B42</f>
+        <v>70.423333333333346</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47">
+        <f>SUM(E40,F40)/2</f>
+        <v>184.83500000000001</v>
+      </c>
+      <c r="J47">
+        <v>0.72007465999999998</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russellmarvin/Desktop/GitHubWork/GitHub/ThesisProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3C4A50-2DBD-DD44-B40A-880A6C284906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1AAD05-2C62-9642-9B71-C554042A90A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="800" windowWidth="14720" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
+    <workbookView xWindow="12240" yWindow="460" windowWidth="14720" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>AlexFast</t>
   </si>
@@ -174,10 +174,13 @@
     <t>normal/slow</t>
   </si>
   <si>
-    <t>proportional dif in len (</t>
-  </si>
-  <si>
     <t>normal/fast (avg dur)</t>
+  </si>
+  <si>
+    <t>how much faster is fast than normal?</t>
+  </si>
+  <si>
+    <t>difference btwn slow n normal as a percentage of normal</t>
   </si>
 </sst>
 </file>
@@ -588,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7585866-00BD-564D-8DE4-45DBD2AA8106}">
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="87" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1799,95 +1802,95 @@
         <v>117.05</v>
       </c>
       <c r="E16">
-        <f>SUM(E2:E14)/13</f>
+        <f t="shared" ref="E16:AA16" si="0">SUM(E2:E14)/13</f>
         <v>161.21692307692308</v>
       </c>
       <c r="F16">
-        <f>SUM(F2:F14)/13</f>
+        <f t="shared" si="0"/>
         <v>227.3469230769231</v>
       </c>
       <c r="G16">
-        <f>SUM(G2:G14)/13</f>
+        <f t="shared" si="0"/>
         <v>166.84307692307692</v>
       </c>
       <c r="H16">
-        <f>SUM(H2:H14)/13</f>
+        <f t="shared" si="0"/>
         <v>178.88153846153844</v>
       </c>
       <c r="I16">
-        <f>SUM(I2:I14)/13</f>
+        <f t="shared" si="0"/>
         <v>209.74307692307687</v>
       </c>
       <c r="J16">
-        <f>SUM(J2:J14)/13</f>
+        <f t="shared" si="0"/>
         <v>115.27923076923076</v>
       </c>
       <c r="K16">
-        <f>SUM(K2:K14)/13</f>
+        <f t="shared" si="0"/>
         <v>155.03153846153847</v>
       </c>
       <c r="L16">
-        <f>SUM(L2:L14)/13</f>
+        <f t="shared" si="0"/>
         <v>155.65</v>
       </c>
       <c r="M16">
-        <f>SUM(M2:M14)/13</f>
+        <f t="shared" si="0"/>
         <v>98.235384615384618</v>
       </c>
       <c r="N16">
-        <f>SUM(N2:N14)/13</f>
+        <f t="shared" si="0"/>
         <v>128.23461538461541</v>
       </c>
       <c r="O16">
-        <f>SUM(O2:O14)/13</f>
+        <f t="shared" si="0"/>
         <v>199.82461538461541</v>
       </c>
       <c r="P16">
-        <f>SUM(P2:P14)/13</f>
+        <f t="shared" si="0"/>
         <v>109.74846153846154</v>
       </c>
       <c r="Q16">
-        <f>SUM(Q2:Q14)/13</f>
+        <f t="shared" si="0"/>
         <v>125.91692307692308</v>
       </c>
       <c r="R16">
-        <f>SUM(R2:R14)/13</f>
+        <f t="shared" si="0"/>
         <v>254.03692307692305</v>
       </c>
       <c r="S16">
-        <f>SUM(S2:S14)/13</f>
+        <f t="shared" si="0"/>
         <v>97.48846153846155</v>
       </c>
       <c r="T16">
-        <f>SUM(T2:T14)/13</f>
+        <f t="shared" si="0"/>
         <v>91.843846153846144</v>
       </c>
       <c r="U16">
-        <f>SUM(U2:U14)/13</f>
+        <f t="shared" si="0"/>
         <v>122.3969230769231</v>
       </c>
       <c r="V16">
-        <f>SUM(V2:V14)/13</f>
+        <f t="shared" si="0"/>
         <v>102.0076923076923</v>
       </c>
       <c r="W16">
-        <f>SUM(W2:W14)/13</f>
+        <f t="shared" si="0"/>
         <v>155.61769230769229</v>
       </c>
       <c r="X16">
-        <f>SUM(X2:X14)/13</f>
+        <f t="shared" si="0"/>
         <v>311.91076923076923</v>
       </c>
       <c r="Y16">
-        <f>SUM(Y2:Y14)/13</f>
+        <f t="shared" si="0"/>
         <v>130.57692307692307</v>
       </c>
       <c r="Z16">
-        <f>SUM(Z2:Z14)/13</f>
+        <f t="shared" si="0"/>
         <v>164.02076923076922</v>
       </c>
       <c r="AA16">
-        <f>SUM(AA2:AA14)/13</f>
+        <f t="shared" si="0"/>
         <v>244.55769230769226</v>
       </c>
     </row>
@@ -3096,99 +3099,99 @@
         <v>166.84</v>
       </c>
       <c r="D34">
-        <f>SUM(D20:D32)/13</f>
+        <f t="shared" ref="D34:AA34" si="1">SUM(D20:D32)/13</f>
         <v>89.865384615384613</v>
       </c>
       <c r="E34">
-        <f>SUM(E20:E32)/13</f>
+        <f t="shared" si="1"/>
         <v>93.50230769230771</v>
       </c>
       <c r="F34">
-        <f>SUM(F20:F32)/13</f>
+        <f t="shared" si="1"/>
         <v>140.68307692307692</v>
       </c>
       <c r="G34">
-        <f>SUM(G20:G32)/13</f>
+        <f t="shared" si="1"/>
         <v>147.66384615384615</v>
       </c>
       <c r="H34">
-        <f>SUM(H20:H32)/13</f>
+        <f t="shared" si="1"/>
         <v>129.6</v>
       </c>
       <c r="I34">
-        <f>SUM(I20:I32)/13</f>
+        <f t="shared" si="1"/>
         <v>138.74538461538464</v>
       </c>
       <c r="J34">
-        <f>SUM(J20:J32)/13</f>
+        <f t="shared" si="1"/>
         <v>93.531538461538489</v>
       </c>
       <c r="K34">
-        <f>SUM(K20:K32)/13</f>
+        <f t="shared" si="1"/>
         <v>117.61999999999999</v>
       </c>
       <c r="L34">
-        <f>SUM(L20:L32)/13</f>
+        <f t="shared" si="1"/>
         <v>111.54461538461538</v>
       </c>
       <c r="M34">
-        <f>SUM(M20:M32)/13</f>
+        <f t="shared" si="1"/>
         <v>72.074615384615385</v>
       </c>
       <c r="N34">
-        <f>SUM(N20:N32)/13</f>
+        <f t="shared" si="1"/>
         <v>95.440769230769234</v>
       </c>
       <c r="O34">
-        <f>SUM(O20:O32)/13</f>
+        <f t="shared" si="1"/>
         <v>119.50461538461538</v>
       </c>
       <c r="P34">
-        <f>SUM(P20:P32)/13</f>
+        <f t="shared" si="1"/>
         <v>93.248461538461541</v>
       </c>
       <c r="Q34">
-        <f>SUM(Q20:Q32)/13</f>
+        <f t="shared" si="1"/>
         <v>99.417692307692292</v>
       </c>
       <c r="R34">
-        <f>SUM(R20:R32)/13</f>
+        <f t="shared" si="1"/>
         <v>192.33615384615385</v>
       </c>
       <c r="S34">
-        <f>SUM(S20:S32)/13</f>
+        <f t="shared" si="1"/>
         <v>73.452307692307699</v>
       </c>
       <c r="T34">
-        <f>SUM(T20:T32)/13</f>
+        <f t="shared" si="1"/>
         <v>77.364615384615391</v>
       </c>
       <c r="U34">
-        <f>SUM(U20:U32)/13</f>
+        <f t="shared" si="1"/>
         <v>89.47999999999999</v>
       </c>
       <c r="V34">
-        <f>SUM(V20:V32)/13</f>
+        <f t="shared" si="1"/>
         <v>83.379230769230773</v>
       </c>
       <c r="W34">
-        <f>SUM(W20:W32)/13</f>
+        <f t="shared" si="1"/>
         <v>119.2069230769231</v>
       </c>
       <c r="X34">
-        <f>SUM(X20:X32)/13</f>
+        <f t="shared" si="1"/>
         <v>189.24846153846158</v>
       </c>
       <c r="Y34">
-        <f>SUM(Y20:Y32)/13</f>
+        <f t="shared" si="1"/>
         <v>82.091538461538462</v>
       </c>
       <c r="Z34">
-        <f>SUM(Z20:Z32)/13</f>
+        <f t="shared" si="1"/>
         <v>129.4946153846154</v>
       </c>
       <c r="AA34">
-        <f>SUM(AA20:AA32)/13</f>
+        <f t="shared" si="1"/>
         <v>198.22461538461536</v>
       </c>
     </row>
@@ -3240,6 +3243,9 @@
         <f>B37/B40</f>
         <v>1.2720646963072286</v>
       </c>
+      <c r="K38">
+        <v>1.0760000000000001</v>
+      </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -3290,6 +3296,9 @@
         <f>B39/B42</f>
         <v>1.4706718710102715</v>
       </c>
+      <c r="K40">
+        <v>0.93100000000000005</v>
+      </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -3323,10 +3332,10 @@
         <v>44</v>
       </c>
       <c r="J44" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" t="s">
         <v>47</v>
-      </c>
-      <c r="L44" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
@@ -3350,6 +3359,7 @@
       <c r="L45" s="2">
         <v>0.18329999999999999</v>
       </c>
+      <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
@@ -3392,6 +3402,17 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
         <v>45</v>
+      </c>
+      <c r="L48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49">
+        <v>0.37180000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russellmarvin/Desktop/GitHubWork/GitHub/ThesisProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1AAD05-2C62-9642-9B71-C554042A90A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9193FB4B-FF49-B640-AE3C-98B66A9AC0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="460" windowWidth="14720" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
+    <workbookView xWindow="13940" yWindow="460" windowWidth="14720" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,6 +241,1003 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avg. vowel length preceding voiced/voiceless</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> consonants by speech rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voiced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$38:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fast</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Slow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$38:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>121.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C47B-E14A-ACBD-E59932E5D181}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Voiceless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$38:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fast</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Slow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>112.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C47B-E14A-ACBD-E59932E5D181}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1586709967"/>
+        <c:axId val="1586717343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1586709967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586717343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1586717343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586709967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44585</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>148347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563393</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>54313</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3607D1-5ADB-6D4F-B053-289F629A9476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7585866-00BD-564D-8DE4-45DBD2AA8106}">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="87" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3418,11 +4415,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russellmarvin/Desktop/GitHubWork/GitHub/ThesisProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9798AC8C-22CA-E240-8192-DDEBB8998C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9EB108-448B-B846-B79C-6E72472ECB16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="460" windowWidth="15180" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
+    <workbookView xWindow="13460" yWindow="460" windowWidth="13140" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3457,72 +3457,72 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CE3B691D-4FF9-BE41-A69C-F150487C0067}" name="Table5" displayName="Table5" ref="A1:AA16" totalsRowShown="0" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CE3B691D-4FF9-BE41-A69C-F150487C0067}" name="Table5" displayName="Table5" ref="A1:AA16" totalsRowShown="0" dataDxfId="55">
   <autoFilter ref="A1:AA16" xr:uid="{6213966E-51AB-034B-BC58-37BE52ABE935}"/>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{D4096C0C-0DE8-BB45-ABDC-576A55772448}" name="AlexFast" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{40CD4139-A5EE-C544-9844-7DBD7F624BC2}" name="AlexNormal" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{F211B746-6C47-E945-A6CA-0096B2B5D910}" name="AlexSlow" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{B6ED3E3A-6A48-A244-93B6-0647DDF33099}" name="EllenFast" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{D54BC5B7-795E-5543-B152-7361C28F42A4}" name="EllenNormal" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{43EA0BA5-49FA-2B4E-BF85-1BD84587340F}" name="EllenSlow" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{B8632679-3576-1349-AEF6-7CE813CD4040}" name="EliseFast" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{60E56B7F-6371-0040-8699-DE74603270DB}" name="EliseNormal" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{51935B55-BFFE-594C-A35F-4ECB4131BA20}" name="EliseSlow" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{8434E074-1698-7D48-B128-D0D159937DE1}" name="MichaelFast" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{8988B654-8619-7647-8488-C7953F77392E}" name="MichaelNormal" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{4D626A45-C4A4-8944-9CEE-BA2EC72833B1}" name="MichaelSlow" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{09BB2B32-A5F2-3240-BB48-81833F3DBD88}" name="JasonFast" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{4293AC91-0BB7-D143-B077-AA5A8341FF0B}" name="JasonNormal" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{95D44105-48D3-D544-81EC-4379C5186E9B}" name="JasonSlow" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{39AA4057-7DAA-4D45-8743-4F69C9134EA3}" name="PatFast" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{BCEA6D88-F02E-C34B-8C6F-E842CB880FA2}" name="PatNormal" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{B360F481-7D76-C440-8663-B28143E5D6F0}" name="PatSlow" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{F89A7588-4934-B446-A257-1EDA72559C58}" name="ConorFast" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{AB19DA40-6724-2A41-BAEC-3C7279240F87}" name="ConorNormal" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{0E58C696-0024-C645-BDDF-D6845921E56B}" name="ConorSlow" dataDxfId="35"/>
-    <tableColumn id="22" xr3:uid="{50C0A777-E6FC-E349-8C5B-A2EFC44EF8F1}" name="MarianneFast" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{320782E1-BEA2-F74B-95CA-595BD5A6A8F6}" name="MarianneNormal" dataDxfId="33"/>
-    <tableColumn id="24" xr3:uid="{2E6941B3-C819-F845-9C02-D40FA60B8C49}" name="MarianneSlow" dataDxfId="32"/>
-    <tableColumn id="25" xr3:uid="{DC846262-A2F3-7342-89E1-AF8B3E6FAD17}" name="GenaFast" dataDxfId="31"/>
-    <tableColumn id="26" xr3:uid="{25C26D87-2D16-FE40-BD74-0C03CE8276D5}" name="GenaNormal" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{2E27356C-9EE7-F941-B5E3-0898CBC211C2}" name="GenaSlow" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{D4096C0C-0DE8-BB45-ABDC-576A55772448}" name="AlexFast" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{40CD4139-A5EE-C544-9844-7DBD7F624BC2}" name="AlexNormal" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{F211B746-6C47-E945-A6CA-0096B2B5D910}" name="AlexSlow" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{B6ED3E3A-6A48-A244-93B6-0647DDF33099}" name="EllenFast" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{D54BC5B7-795E-5543-B152-7361C28F42A4}" name="EllenNormal" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{43EA0BA5-49FA-2B4E-BF85-1BD84587340F}" name="EllenSlow" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{B8632679-3576-1349-AEF6-7CE813CD4040}" name="EliseFast" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{60E56B7F-6371-0040-8699-DE74603270DB}" name="EliseNormal" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{51935B55-BFFE-594C-A35F-4ECB4131BA20}" name="EliseSlow" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{8434E074-1698-7D48-B128-D0D159937DE1}" name="MichaelFast" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{8988B654-8619-7647-8488-C7953F77392E}" name="MichaelNormal" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{4D626A45-C4A4-8944-9CEE-BA2EC72833B1}" name="MichaelSlow" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{09BB2B32-A5F2-3240-BB48-81833F3DBD88}" name="JasonFast" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{4293AC91-0BB7-D143-B077-AA5A8341FF0B}" name="JasonNormal" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{95D44105-48D3-D544-81EC-4379C5186E9B}" name="JasonSlow" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{39AA4057-7DAA-4D45-8743-4F69C9134EA3}" name="PatFast" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{BCEA6D88-F02E-C34B-8C6F-E842CB880FA2}" name="PatNormal" dataDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{B360F481-7D76-C440-8663-B28143E5D6F0}" name="PatSlow" dataDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{F89A7588-4934-B446-A257-1EDA72559C58}" name="ConorFast" dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{AB19DA40-6724-2A41-BAEC-3C7279240F87}" name="ConorNormal" dataDxfId="35"/>
+    <tableColumn id="21" xr3:uid="{0E58C696-0024-C645-BDDF-D6845921E56B}" name="ConorSlow" dataDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{50C0A777-E6FC-E349-8C5B-A2EFC44EF8F1}" name="MarianneFast" dataDxfId="33"/>
+    <tableColumn id="23" xr3:uid="{320782E1-BEA2-F74B-95CA-595BD5A6A8F6}" name="MarianneNormal" dataDxfId="32"/>
+    <tableColumn id="24" xr3:uid="{2E6941B3-C819-F845-9C02-D40FA60B8C49}" name="MarianneSlow" dataDxfId="31"/>
+    <tableColumn id="25" xr3:uid="{DC846262-A2F3-7342-89E1-AF8B3E6FAD17}" name="GenaFast" dataDxfId="30"/>
+    <tableColumn id="26" xr3:uid="{25C26D87-2D16-FE40-BD74-0C03CE8276D5}" name="GenaNormal" dataDxfId="29"/>
+    <tableColumn id="27" xr3:uid="{2E27356C-9EE7-F941-B5E3-0898CBC211C2}" name="GenaSlow" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8BD51ADB-DCA8-3241-A51E-830F9556A3E1}" name="Table6" displayName="Table6" ref="A19:AA34" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8BD51ADB-DCA8-3241-A51E-830F9556A3E1}" name="Table6" displayName="Table6" ref="A19:AA34" totalsRowShown="0" dataDxfId="27">
   <autoFilter ref="A19:AA34" xr:uid="{5341F4E6-B4BC-9745-9D3A-AC7A4756AFA1}"/>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{CD9812C7-D5A9-2C46-BC4B-A2E7599D365A}" name="AlexFast" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{2049C2A9-CD19-E648-B832-39EC8113DE57}" name="AlexNormal" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{E361D7ED-AB80-CE41-A889-9CD05E6F7693}" name="AlexSlow" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{2F0C90FC-A0E7-B044-B04C-BE3025D5C214}" name="EllenFast" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{6D743E02-5EE4-8649-AA52-B73BBC96C110}" name="EllenNormal" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{8E9E4B71-6E85-BB47-B25B-73C9BA791388}" name="EllenSlow" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{3692186B-F2C0-834F-A53E-67913FA11C7C}" name="EliseFast" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{3E92ED0A-7CB3-8145-982E-D346F8B907E8}" name="EliseNormal" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{D68CA5BB-EA94-FA4F-8742-AECF16DAA4EB}" name="EliseSlow" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{EB4AB76A-4D45-5E4F-B689-CD9168B6A697}" name="MichaelFast" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{5C1ED3BE-D0C9-164E-BBD7-2E7D1CD25FD4}" name="MichaelNormal" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{0EA4E03F-87D2-E947-ADC2-6262A0BABE6F}" name="MichaelSlow" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{88C310D2-39EE-6245-B409-4156C83147D8}" name="JasonFast" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{BFBCC7E4-9E96-D847-A4DB-BA7362B483D2}" name="JasonNormal" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{1F3EFEA3-F444-2F43-9189-3A413D9FFA95}" name="JasonSlow" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{F5B8A587-F21D-0C40-B0D2-07830BE3C545}" name="PatFast" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{FD65193A-6F85-314B-B9F5-C84DD10FEEB6}" name="PatNormal" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{5EC48EE5-3549-E943-A91F-96123475AE74}" name="PatSlow" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{6829E80D-8C7C-7843-B546-99281CC2D306}" name="ConorFast" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{0D3B8CCB-3735-6545-8FAE-359AE840CC67}" name="ConorNormal" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{ED398332-6340-7A49-B7AC-EE839CC0BABC}" name="ConorSlow" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{08BB4D85-5A43-6744-BB4B-6B712B612F18}" name="MarianneFast" dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{2E9A5DC2-C2B2-7C4E-AC22-6776BCFC6BEC}" name="MarianneNormal" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{D85E6D01-ADFA-5742-A4FB-B666A4924C45}" name="MarianneSlow" dataDxfId="4"/>
-    <tableColumn id="25" xr3:uid="{0A7D30C1-AC0C-5D41-958E-7A2AAA2AD433}" name="GenaFast" dataDxfId="3"/>
-    <tableColumn id="26" xr3:uid="{935A9F3B-C40C-D544-B5C3-2D17AC72F823}" name="GenaNormal" dataDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{A6E48C5E-5813-3F47-A884-AEEF8D44BA55}" name="GenaSlow" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CD9812C7-D5A9-2C46-BC4B-A2E7599D365A}" name="AlexFast" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{2049C2A9-CD19-E648-B832-39EC8113DE57}" name="AlexNormal" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{E361D7ED-AB80-CE41-A889-9CD05E6F7693}" name="AlexSlow" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{2F0C90FC-A0E7-B044-B04C-BE3025D5C214}" name="EllenFast" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{6D743E02-5EE4-8649-AA52-B73BBC96C110}" name="EllenNormal" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{8E9E4B71-6E85-BB47-B25B-73C9BA791388}" name="EllenSlow" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{3692186B-F2C0-834F-A53E-67913FA11C7C}" name="EliseFast" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{3E92ED0A-7CB3-8145-982E-D346F8B907E8}" name="EliseNormal" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{D68CA5BB-EA94-FA4F-8742-AECF16DAA4EB}" name="EliseSlow" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{EB4AB76A-4D45-5E4F-B689-CD9168B6A697}" name="MichaelFast" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{5C1ED3BE-D0C9-164E-BBD7-2E7D1CD25FD4}" name="MichaelNormal" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{0EA4E03F-87D2-E947-ADC2-6262A0BABE6F}" name="MichaelSlow" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{88C310D2-39EE-6245-B409-4156C83147D8}" name="JasonFast" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{BFBCC7E4-9E96-D847-A4DB-BA7362B483D2}" name="JasonNormal" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{1F3EFEA3-F444-2F43-9189-3A413D9FFA95}" name="JasonSlow" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{F5B8A587-F21D-0C40-B0D2-07830BE3C545}" name="PatFast" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{FD65193A-6F85-314B-B9F5-C84DD10FEEB6}" name="PatNormal" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{5EC48EE5-3549-E943-A91F-96123475AE74}" name="PatSlow" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{6829E80D-8C7C-7843-B546-99281CC2D306}" name="ConorFast" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{0D3B8CCB-3735-6545-8FAE-359AE840CC67}" name="ConorNormal" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{ED398332-6340-7A49-B7AC-EE839CC0BABC}" name="ConorSlow" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{08BB4D85-5A43-6744-BB4B-6B712B612F18}" name="MarianneFast" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{2E9A5DC2-C2B2-7C4E-AC22-6776BCFC6BEC}" name="MarianneNormal" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{D85E6D01-ADFA-5742-A4FB-B666A4924C45}" name="MarianneSlow" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{0A7D30C1-AC0C-5D41-958E-7A2AAA2AD433}" name="GenaFast" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{935A9F3B-C40C-D544-B5C3-2D17AC72F823}" name="GenaNormal" dataDxfId="1"/>
+    <tableColumn id="27" xr3:uid="{A6E48C5E-5813-3F47-A884-AEEF8D44BA55}" name="GenaSlow" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3827,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7585866-00BD-564D-8DE4-45DBD2AA8106}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA20" sqref="AA20:AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russellmarvin/Desktop/GitHubWork/GitHub/ThesisProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9EB108-448B-B846-B79C-6E72472ECB16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531821F8-BCB0-4A42-B4A6-E564349EC73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="460" windowWidth="13140" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
+    <workbookView xWindow="15440" yWindow="460" windowWidth="13360" windowHeight="16240" xr2:uid="{EB15D3BF-9FD6-2C45-A0DB-E6B139310DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3827,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7585866-00BD-564D-8DE4-45DBD2AA8106}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20:AA32"/>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
